--- a/medicine/Psychotrope/Le_Thé_au_harem_d'Archimède/Le_Thé_au_harem_d'Archimède.xlsx
+++ b/medicine/Psychotrope/Le_Thé_au_harem_d'Archimède/Le_Thé_au_harem_d'Archimède.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Th%C3%A9_au_harem_d%27Archim%C3%A8de</t>
+          <t>Le_Thé_au_harem_d'Archimède</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Thé au harem d'Archimède est un film français réalisé par Mehdi Charef, sorti le 30 avril 1985, d'après son roman du même nom[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Thé au harem d'Archimède est un film français réalisé par Mehdi Charef, sorti le 30 avril 1985, d'après son roman du même nom.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Th%C3%A9_au_harem_d%27Archim%C3%A8de</t>
+          <t>Le_Thé_au_harem_d'Archimède</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette chronique de la vie d'une cité HLM de la banlieue parisienne dans les années 1980 met en scène Madjid, fils d'immigrés et aîné d'une famille nombreuse entièrement soutenue par la mère, et son meilleur ami Pat. Après une mise en place réaliste, le film bascule dans l'onirisme puis revient au réel avec plusieurs scènes très fortes quasi-mélodramatiques.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Th%C3%A9_au_harem_d%27Archim%C3%A8de</t>
+          <t>Le_Thé_au_harem_d'Archimède</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Le Thé au harem d'Archimède
 Réalisation : Mehdi Charef
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Le_Th%C3%A9_au_harem_d%27Archim%C3%A8de</t>
+          <t>Le_Thé_au_harem_d'Archimède</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Kader Boukhanef : Madjid
 Rémi Martin : Pat
@@ -601,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Le_Th%C3%A9_au_harem_d%27Archim%C3%A8de</t>
+          <t>Le_Thé_au_harem_d'Archimède</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,14 +639,53 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lieux de tournage
-Le film a été en partie réalisé dans les départements :
+          <t>Lieux de tournage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le film a été en partie réalisé dans les départements :
 Hauts-de-Seine
 Cité du Luth à Gennevilliers
 Seine-Saint-Denis
-Cité des 4000 de La Courneuve
-Musique
-Participation de Karim Kacel en 1984 à la composition de la bande originale du film
+Cité des 4000 de La Courneuve</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Le_Thé_au_harem_d'Archimède</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Th%C3%A9_au_harem_d%27Archim%C3%A8de</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Musique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Participation de Karim Kacel en 1984 à la composition de la bande originale du film
 </t>
         </is>
       </c>
